--- a/Documenten/kalibratie.xlsx
+++ b/Documenten/kalibratie.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Herman\Documents\3d-scanner\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Periode 2.1\Project 56\Code\3d-scanner\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472B9859-6A72-4C24-B438-F740BD2B4FCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050A219-4A3B-4339-BAAD-C74DCDADB141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{961EDDF1-774E-4080-BC3D-4EE9ACDF2269}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{961EDDF1-774E-4080-BC3D-4EE9ACDF2269}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>afstand lasers mm</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>sin(12 deg)</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>afmeting kubus</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
   </si>
 </sst>
 </file>
@@ -155,7 +168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -243,7 +256,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -453,7 +466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1019460783"/>
@@ -515,7 +528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1113160831"/>
@@ -563,7 +576,1296 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pixels/mm t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>est 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pixels/mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad2!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad2!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-926C-4B6B-B733-41075B75E149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312390495"/>
+        <c:axId val="316447279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312390495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316447279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316447279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312390495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pixels/mm test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad2!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad2!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF4F-4562-AF02-424B7153CC63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306753743"/>
+        <c:axId val="316465583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306753743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316465583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316465583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306753743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pixels/mm test 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad2!$N$3:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad2!$O$3:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-649C-44E8-8268-1835C768F706}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="314339391"/>
+        <c:axId val="316471407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="314339391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316471407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316471407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314339391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -614,6 +1916,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1130,20 +2552,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>516548</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117597</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1163,6 +4133,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88073657-379C-403D-B963-F5734A8069D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D98075A-0A4C-4C25-8386-9AF44A082980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AAE8DA-67BD-439F-9A93-DFBD3B3F704C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1470,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AFE49-F69D-48DD-8E86-F37BC1D47513}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +4618,7 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <f>A2/$I$2</f>
+        <f t="shared" ref="E2:E20" si="0">A2/$I$2</f>
         <v>103.50186240852599</v>
       </c>
       <c r="F2">
@@ -1543,7 +4626,7 @@
         <v>3.5018624085259944</v>
       </c>
       <c r="G2">
-        <f>D2*$I$2</f>
+        <f t="shared" ref="G2:G20" si="1">D2*$I$2</f>
         <v>21.255656167002211</v>
       </c>
       <c r="H2">
@@ -1567,26 +4650,26 @@
         <v>130</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">B3/A3</f>
+        <f t="shared" ref="C3:C20" si="2">B3/A3</f>
         <v>6.1904761904761907</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <f>A3/$I$2</f>
+        <f t="shared" si="0"/>
         <v>98.797232299047536</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="1">ABS((E3-D3)/D3)*100</f>
+        <f t="shared" ref="F3:F20" si="3">ABS((E3-D3)/D3)*100</f>
         <v>3.9970866305763542</v>
       </c>
       <c r="G3">
-        <f>D3*$I$2</f>
+        <f t="shared" si="1"/>
         <v>20.192873358652101</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="2">ABS((G3-A3)/A3)*100</f>
+        <f t="shared" ref="H3:H20" si="4">ABS((G3-A3)/A3)*100</f>
         <v>3.8434601968947595</v>
       </c>
     </row>
@@ -1598,26 +4681,26 @@
         <v>121</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.05</v>
       </c>
       <c r="D4">
         <v>90</v>
       </c>
       <c r="E4">
-        <f>A4/$I$2</f>
+        <f t="shared" si="0"/>
         <v>94.092602189569078</v>
       </c>
       <c r="F4">
+        <f t="shared" si="3"/>
+        <v>4.5473357661878646</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>4.5473357661878646</v>
-      </c>
-      <c r="G4">
-        <f>D4*$I$2</f>
         <v>19.13009055030199</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.349547248490051</v>
       </c>
     </row>
@@ -1629,26 +4712,26 @@
         <v>111</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8421052631578947</v>
       </c>
       <c r="D5">
         <v>85</v>
       </c>
       <c r="E5">
-        <f>A5/$I$2</f>
+        <f t="shared" si="0"/>
         <v>89.387972080090634</v>
       </c>
       <c r="F5">
+        <f t="shared" si="3"/>
+        <v>5.1623200942242757</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>5.1623200942242757</v>
-      </c>
-      <c r="G5">
-        <f>D5*$I$2</f>
         <v>18.067307741951879</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9089066213058992</v>
       </c>
     </row>
@@ -1660,26 +4743,26 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.666666666666667</v>
       </c>
       <c r="D6">
         <v>80</v>
       </c>
       <c r="E6">
-        <f>A6/$I$2</f>
+        <f t="shared" si="0"/>
         <v>84.683341970612176</v>
       </c>
       <c r="F6">
+        <f t="shared" si="3"/>
+        <v>5.8541774632652199</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>5.8541774632652199</v>
-      </c>
-      <c r="G6">
-        <f>D6*$I$2</f>
         <v>17.004524933601772</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5304170355457121</v>
       </c>
     </row>
@@ -1691,26 +4774,26 @@
         <v>94</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5294117647058822</v>
       </c>
       <c r="D7">
         <v>75</v>
       </c>
       <c r="E7">
-        <f>A7/$I$2</f>
+        <f t="shared" si="0"/>
         <v>79.978711861133718</v>
       </c>
       <c r="F7">
+        <f t="shared" si="3"/>
+        <v>6.6382824815116228</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>6.6382824815116228</v>
-      </c>
-      <c r="G7">
-        <f>D7*$I$2</f>
         <v>15.941742125251659</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.2250463220490628</v>
       </c>
     </row>
@@ -1722,26 +4805,26 @@
         <v>86</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.375</v>
       </c>
       <c r="D8">
         <v>70</v>
       </c>
       <c r="E8">
-        <f>A8/$I$2</f>
+        <f t="shared" si="0"/>
         <v>75.274081751655274</v>
       </c>
       <c r="F8">
+        <f t="shared" si="3"/>
+        <v>7.534402502364677</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>7.534402502364677</v>
-      </c>
-      <c r="G8">
-        <f>D8*$I$2</f>
         <v>14.878959316901549</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0065042693653208</v>
       </c>
     </row>
@@ -1753,26 +4836,26 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2666666666666666</v>
       </c>
       <c r="D9">
         <v>65</v>
       </c>
       <c r="E9">
-        <f>A9/$I$2</f>
+        <f t="shared" si="0"/>
         <v>70.569451642176816</v>
       </c>
       <c r="F9">
+        <f t="shared" si="3"/>
+        <v>8.5683871418104847</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>8.5683871418104847</v>
-      </c>
-      <c r="G9">
-        <f>D9*$I$2</f>
         <v>13.816176508551438</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8921566096570803</v>
       </c>
     </row>
@@ -1784,26 +4867,26 @@
         <v>70</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.384615384615385</v>
       </c>
       <c r="D10">
         <v>60</v>
       </c>
       <c r="E10">
-        <f>A10/$I$2</f>
+        <f t="shared" si="0"/>
         <v>61.160191423219906</v>
       </c>
       <c r="F10">
+        <f t="shared" si="3"/>
+        <v>1.9336523720331775</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.9336523720331775</v>
-      </c>
-      <c r="G10">
-        <f>D10*$I$2</f>
         <v>12.753393700201327</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8969715369128684</v>
       </c>
     </row>
@@ -1815,26 +4898,26 @@
         <v>65</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.416666666666667</v>
       </c>
       <c r="D11">
         <v>55</v>
       </c>
       <c r="E11">
-        <f>A11/$I$2</f>
+        <f t="shared" si="0"/>
         <v>56.455561313741448</v>
       </c>
       <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2.646475115893542</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>2.646475115893542</v>
-      </c>
-      <c r="G11">
-        <f>D11*$I$2</f>
         <v>11.690610891851216</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5782425679065302</v>
       </c>
     </row>
@@ -1846,26 +4929,26 @@
         <v>58</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2727272727272725</v>
       </c>
       <c r="D12">
         <v>50</v>
       </c>
       <c r="E12">
-        <f>A12/$I$2</f>
+        <f t="shared" si="0"/>
         <v>51.750931204262997</v>
       </c>
       <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.5018624085259944</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>3.5018624085259944</v>
-      </c>
-      <c r="G12">
-        <f>D12*$I$2</f>
         <v>10.627828083501106</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.383381059080858</v>
       </c>
     </row>
@@ -1877,26 +4960,26 @@
         <v>51</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="D13">
         <v>45</v>
       </c>
       <c r="E13">
-        <f>A13/$I$2</f>
+        <f t="shared" si="0"/>
         <v>47.046301094784539</v>
       </c>
       <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4.5473357661878646</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.5473357661878646</v>
-      </c>
-      <c r="G13">
-        <f>D13*$I$2</f>
         <v>9.5650452751509949</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.349547248490051</v>
       </c>
     </row>
@@ -1908,26 +4991,26 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2222222222222223</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
       <c r="E14">
-        <f>A14/$I$2</f>
+        <f t="shared" si="0"/>
         <v>42.341670985306088</v>
       </c>
       <c r="F14">
+        <f t="shared" si="3"/>
+        <v>5.8541774632652199</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>5.8541774632652199</v>
-      </c>
-      <c r="G14">
-        <f>D14*$I$2</f>
         <v>8.5022624668008859</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5304170355457121</v>
       </c>
     </row>
@@ -1939,26 +5022,26 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.125</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15">
-        <f>A15/$I$2</f>
+        <f t="shared" si="0"/>
         <v>37.637040875827637</v>
       </c>
       <c r="F15">
+        <f t="shared" si="3"/>
+        <v>7.534402502364677</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>7.534402502364677</v>
-      </c>
-      <c r="G15">
-        <f>D15*$I$2</f>
         <v>7.4394796584507743</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0065042693653208</v>
       </c>
     </row>
@@ -1970,26 +5053,26 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16">
-        <f>A16/$I$2</f>
+        <f t="shared" si="0"/>
         <v>32.932410766349179</v>
       </c>
       <c r="F16">
+        <f t="shared" si="3"/>
+        <v>9.7747025544972619</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>9.7747025544972619</v>
-      </c>
-      <c r="G16">
-        <f>D16*$I$2</f>
         <v>6.3766968501006636</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9043307128476634</v>
       </c>
     </row>
@@ -2001,26 +5084,26 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="D17">
         <v>25</v>
       </c>
       <c r="E17">
-        <f>A17/$I$2</f>
+        <f t="shared" si="0"/>
         <v>28.227780656870724</v>
       </c>
       <c r="F17">
+        <f t="shared" si="3"/>
+        <v>12.911122627482897</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>12.911122627482897</v>
-      </c>
-      <c r="G17">
-        <f>D17*$I$2</f>
         <v>5.3139140417505528</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.434765970824118</v>
       </c>
     </row>
@@ -2032,26 +5115,26 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <f>A18/$I$2</f>
+        <f t="shared" si="0"/>
         <v>23.52315054739227</v>
       </c>
       <c r="F18">
+        <f t="shared" si="3"/>
+        <v>17.615752736961348</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>17.615752736961348</v>
-      </c>
-      <c r="G18">
-        <f>D18*$I$2</f>
         <v>4.251131233400443</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.977375331991141</v>
       </c>
     </row>
@@ -2063,26 +5146,26 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19">
-        <f>A19/$I$2</f>
+        <f t="shared" si="0"/>
         <v>16.466205383174589</v>
       </c>
       <c r="F19">
+        <f t="shared" si="3"/>
+        <v>9.7747025544972619</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>9.7747025544972619</v>
-      </c>
-      <c r="G19">
-        <f>D19*$I$2</f>
         <v>3.1883484250503318</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9043307128476634</v>
       </c>
     </row>
@@ -2094,27 +5177,456 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="E20">
-        <f>A20/$I$2</f>
+        <f t="shared" si="0"/>
         <v>11.761575273696135</v>
       </c>
       <c r="F20">
+        <f t="shared" si="3"/>
+        <v>17.615752736961348</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>17.615752736961348</v>
-      </c>
-      <c r="G20">
-        <f>D20*$I$2</f>
         <v>2.1255656167002215</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.977375331991141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2874EED5-0FF3-4EC4-BB92-84CC277358D8}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2.5</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>2.5</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>3.5</v>
+      </c>
+      <c r="O4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>86</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>121</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>139</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>130</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>140</v>
+      </c>
+      <c r="N15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>160</v>
+      </c>
+      <c r="N17">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>170</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>180</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>190</v>
+      </c>
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>200</v>
+      </c>
+      <c r="N21">
+        <v>22</v>
+      </c>
+      <c r="O21">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
